--- a/data/trans_dic/P39A3_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Edad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9075287637686028</v>
+        <v>0.9075287637686026</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.9345205287234832</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9203374182973967</v>
+        <v>0.9203374182973965</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8538523048499165</v>
+        <v>0.8486283061385057</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8952474507637596</v>
+        <v>0.8910039738621103</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8875625382769249</v>
+        <v>0.890030445577786</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9492568461018775</v>
+        <v>0.9454033381977446</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9643141170534194</v>
+        <v>0.9639459877303425</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9443500358160726</v>
+        <v>0.9464874029987348</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8837925577134346</v>
+        <v>0.8851934249173161</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8867532956968818</v>
+        <v>0.8853477561987168</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8960520466590364</v>
+        <v>0.8924707769058969</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9500283038362809</v>
+        <v>0.9533553298307104</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9414259243134507</v>
+        <v>0.9401051049856026</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.939418762147312</v>
+        <v>0.937594546255716</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9094208749368071</v>
+        <v>0.9094208749368069</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.8975335717418751</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8814860665490017</v>
+        <v>0.8822933458059402</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8749755041268835</v>
+        <v>0.8746658946956336</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8871605442629437</v>
+        <v>0.8867894636161354</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9313115122965142</v>
+        <v>0.9312467646142792</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9161838995996099</v>
+        <v>0.917190202631792</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9186573444339076</v>
+        <v>0.9182225718310932</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.8964919247714268</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9079904741616071</v>
+        <v>0.9079904741616072</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8997743552879064</v>
+        <v>0.8958523573518095</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8793681088778409</v>
+        <v>0.8771251819258963</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8930928082516327</v>
+        <v>0.8952159865170913</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9400256203754975</v>
+        <v>0.9387928682451594</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9130958478811472</v>
+        <v>0.9114825145969503</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9205086517255224</v>
+        <v>0.920131695892527</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.9159454245712781</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9085404369039911</v>
+        <v>0.9085404369039913</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8737403789839809</v>
+        <v>0.874886159228063</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8973532114972573</v>
+        <v>0.8962155367746952</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.893923995441802</v>
+        <v>0.8924016556118594</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9204984324588179</v>
+        <v>0.9206752106068772</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.931304374907939</v>
+        <v>0.9310527722298187</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9224634388747797</v>
+        <v>0.9210536383564549</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.9035936690517804</v>
+        <v>0.9035936690517803</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.9106743941454103</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9072674225501381</v>
+        <v>0.907267422550138</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8772496904431846</v>
+        <v>0.877274729370228</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8874590197301185</v>
+        <v>0.8888585959576883</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8909046150641002</v>
+        <v>0.8892600680810456</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9268254386702151</v>
+        <v>0.9265299762400546</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9287434581236926</v>
+        <v>0.9283082326744565</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9221379409113557</v>
+        <v>0.9228519569473288</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8427458164163047</v>
+        <v>0.846540165847019</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8361729085238735</v>
+        <v>0.8329761723694331</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8496340885672713</v>
+        <v>0.8485787671321999</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9098045681417942</v>
+        <v>0.910863135881356</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8884558141996294</v>
+        <v>0.8876367837377869</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.889805184861607</v>
+        <v>0.888285929440332</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8980254155979286</v>
+        <v>0.8970382423374945</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8956817484851252</v>
+        <v>0.8966903468789036</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8992146957068997</v>
+        <v>0.8990062276697658</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9190764967428776</v>
+        <v>0.9184571363208037</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9121354211624434</v>
+        <v>0.9136904331842355</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9127544845074419</v>
+        <v>0.912620950595928</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>304151</v>
+        <v>302290</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>287993</v>
+        <v>286628</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>601680</v>
+        <v>603353</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>338135</v>
+        <v>336762</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>310211</v>
+        <v>310093</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>640176</v>
+        <v>641625</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>391345</v>
+        <v>391965</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>414789</v>
+        <v>414131</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>815912</v>
+        <v>812651</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>420674</v>
+        <v>422148</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>440362</v>
+        <v>439745</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>855400</v>
+        <v>853739</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>516919</v>
+        <v>517393</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>523559</v>
+        <v>523374</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1051097</v>
+        <v>1050658</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>546138</v>
+        <v>546100</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>548217</v>
+        <v>548819</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1088414</v>
+        <v>1087899</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>597492</v>
+        <v>594888</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>626304</v>
+        <v>624706</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1229134</v>
+        <v>1232056</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>624221</v>
+        <v>623403</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>650325</v>
+        <v>649176</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1266866</v>
+        <v>1266347</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>502802</v>
+        <v>503461</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>523779</v>
+        <v>523115</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1036194</v>
+        <v>1034429</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>529709</v>
+        <v>529811</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>543596</v>
+        <v>543449</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1069275</v>
+        <v>1067641</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>330406</v>
+        <v>330416</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>360425</v>
+        <v>360993</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>697373</v>
+        <v>696086</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>349079</v>
+        <v>348967</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>377192</v>
+        <v>377015</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>721822</v>
+        <v>722381</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>232767</v>
+        <v>233815</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>321327</v>
+        <v>320099</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>561170</v>
+        <v>560473</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>251289</v>
+        <v>251581</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>341418</v>
+        <v>341104</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>587702</v>
+        <v>586699</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2943527</v>
+        <v>2940291</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3111731</v>
+        <v>3115235</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>6071430</v>
+        <v>6070023</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>3012528</v>
+        <v>3010498</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>3168893</v>
+        <v>3174296</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>6162850</v>
+        <v>6161948</v>
       </c>
     </row>
     <row r="36">
